--- a/Ground truth dataset.xlsx
+++ b/Ground truth dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1640" windowWidth="33600" windowHeight="19140" tabRatio="500"/>
+    <workbookView xWindow="600" yWindow="2480" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ground truth dataset" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="290">
   <si>
     <t>Project</t>
   </si>
@@ -53,12 +53,24 @@
     <t>not fixed</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\commons-chain-CHAIN_1_2_RC2</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\commons-chain-CHAIN_1_2</t>
+  </si>
+  <si>
     <t>commons-digester:commons-digester</t>
   </si>
   <si>
     <t>org.apache.bookkeeper.stats:bookkeeper-stats-api</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\bookkeeper-release-4.5.0\bookkeeper-stats</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\bookkeeper-release-4.6.1\bookkeeper-stats</t>
+  </si>
+  <si>
     <t>org.apache.servicemix:servicemix-audit</t>
   </si>
   <si>
@@ -68,6 +80,12 @@
     <t>fixed</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\servicemix3-servicemix-3.3.2\core\servicemix-audit</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\servicemix3-servicemix-3.4.1\core\servicemix-audit</t>
+  </si>
+  <si>
     <t>com.sun.xml.bind:jaxb-impl</t>
   </si>
   <si>
@@ -107,12 +125,24 @@
     <t>org.apache.myfaces.extensions.cdi.core:myfaces-extcdi-core-impl</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\myfaces-extcdi-extcdi-1.0.5\core\impl</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\myfaces-extcdi-extcdi-1.0.6\core\impl</t>
+  </si>
+  <si>
     <t>org.apache.marmotta:ldclient-provider-rdf</t>
   </si>
   <si>
     <t>com.fasterxml.jackson.core:jackson-core</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\marmotta-3.2.1\libraries\ldclient\ldclient-provider-rdf</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\marmotta-3.3.0\libraries\ldclient\ldclient-provider-rdf</t>
+  </si>
+  <si>
     <t>org.slf4j:slf4j-api</t>
   </si>
   <si>
@@ -146,18 +176,36 @@
     <t>org.apache.httpcomponents:httpcore</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\metamodel-MetaModel-5.0-RC4\elasticsearch\rest</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\metamodel-MetaModel-5.1.0-RC1\elasticsearch\rest</t>
+  </si>
+  <si>
     <t>com.google.guava:guava</t>
   </si>
   <si>
     <t>org.apache.james:james-server-onami</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\james-project-james-project-3.0.0-RC1\server\container\guice\onami</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\james-project-james-project-3.0.1\server\container\guice\onami</t>
+  </si>
+  <si>
     <t>com.mesosphere.mesos.rx.java:mesos-rxjava-recordio</t>
   </si>
   <si>
     <t>io.reactivex:rxjava</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\mesos-rxjava-0.1.0\mesos-rxjava-recordio</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\mesos-rxjava-0.1.1\mesos-rxjava-recordio</t>
+  </si>
+  <si>
     <t>io.netty:netty-codec-http</t>
   </si>
   <si>
@@ -170,6 +218,12 @@
     <t>com.senseidb.clue:clue</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\clue-release-0.0.5</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\clue-release-0.0.2</t>
+  </si>
+  <si>
     <t>commons-httpclient:commons-httpclient</t>
   </si>
   <si>
@@ -179,9 +233,21 @@
     <t>org.eclipse.jdt.core.compiler:ecj</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\tomcat-maven-plugin-tomcat-maven-plugin-2.0-beta-1\tomcat7-war-runner</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\tomcat-maven-plugin-tomcat-maven-plugin-2.2\tomcat7-war-runner</t>
+  </si>
+  <si>
     <t>org.apache.axis2:axis2-json</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\axis2-java-1.7.6\modules\json</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\axis2-java-1.7.7\modules\json</t>
+  </si>
+  <si>
     <t>commons-io:commons-io</t>
   </si>
   <si>
@@ -194,27 +260,63 @@
     <t>org.codehaus.plexus:plexus-utils</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\maven-wagon-wagon-3.0.0\wagon-providers\wagon-ssh-common</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\maven-wagon-wagon-3.0.0\wagon-providers\wagon-ssh-common</t>
+  </si>
+  <si>
     <t>org.apache.wink.example:ReadRSS-client</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\wink-wink-1.3.0-RC1\wink-examples\client\ReadRSS-client</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\wink-wink-1.4.0\wink-examples\client\ReadRSS-client</t>
+  </si>
+  <si>
     <t>org.apache.tuscany.sca:tuscany-binding-http-runtime</t>
   </si>
   <si>
     <t>org.codehaus.jackson:jackson-mapper-asl</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\tuscany-sca-2.x-2.0\modules\binding-http-runtime</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\tuscany-sca-2.x-2.0.1\modules\binding-http-runtime</t>
+  </si>
+  <si>
     <t>org.apache.rampart:rampart-policy</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\rampart-1.6.4\modules\rampart-policy</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\rampart-1.7.1\modules\rampart-policy</t>
+  </si>
+  <si>
     <t>org.apache.mina:mina-integration-xbean</t>
   </si>
   <si>
     <t>org.apache.mina:mina-core</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\mina-2.0.16\mina-integration-xbean</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\mina-2.0.16\mina-integration-xbean</t>
+  </si>
+  <si>
     <t>org.apache.activemq:artemis-web</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\artemis-web</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\artemis-web</t>
+  </si>
+  <si>
     <t>org.apache.commons:commons-lang3</t>
   </si>
   <si>
@@ -224,9 +326,21 @@
     <t>org.apache.activemq:artemis-jms-server</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\artemis-jms-server</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\artemis-jms-server</t>
+  </si>
+  <si>
     <t>org.apache.nifi:nifi-spring-processors</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-spring-bundle\nifi-spring-processors</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-spring-bundle\nifi-spring-processors</t>
+  </si>
+  <si>
     <t>org.hamcrest:hamcrest-core</t>
   </si>
   <si>
@@ -236,15 +350,33 @@
     <t>org.apache.wink:wink-client-apache-httpclient</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\wink-wink-1.3.0-RC1\wink-client-apache-httpclient</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\wink-wink-1.4.0\wink-client-apache-httpclient</t>
+  </si>
+  <si>
     <t>org.apache.activemq:artemis-service-extensions</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\artemis-service-extensions</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\artemis-service-extensions</t>
+  </si>
+  <si>
     <t>com.orientechnologies:orientdb-etl</t>
   </si>
   <si>
     <t>com.orientechnologies:orientdb-core</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\orientdb-3.0.0RC1\etl</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\orientdb-3.0.0m2\etl</t>
+  </si>
+  <si>
     <t>org.objenesis:objenesis</t>
   </si>
   <si>
@@ -254,42 +386,102 @@
     <t>com.fasterxml.jackson.core:jackson-annotations</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\usergrid-usergrid-006\stack\corepersistence\model</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\usergrid-usergrid-2.1.0\stack\corepersistence\model</t>
+  </si>
+  <si>
     <t>org.apache.olingo:olingo-odata2-jpa-processor-ref</t>
   </si>
   <si>
     <t>org.eclipse.persistence:javax.persistence</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\olingo-odata2-2.0.8\odata2-jpa-processor\jpa-ref</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\olingo-odata2-2.0.10-RC01\odata2-jpa-processor\jpa-ref</t>
+  </si>
+  <si>
     <t>org.eclipse.hono:hono-core</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\hono-0.5-M7\core</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\hono-0.5\core</t>
+  </si>
+  <si>
     <t>org.apache.activemq:artemis-cdi-client</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\artemis-cdi-client</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\artemis-cdi-client</t>
+  </si>
+  <si>
     <t>org.apache.batchee:batchee-extras</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\incubator-batchee-batchee-0.2-incubating\extensions\extras</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\incubator-batchee-batchee-0.5-incubating\extensions\extras</t>
+  </si>
+  <si>
     <t>org.apache.maven.scm:maven-scm-provider-cvstest</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\maven-scm-maven-scm-1.9.4\maven-scm-providers\maven-scm-providers-cvs\maven-scm-provider-cvstest</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\maven-scm-maven-scm-1.9.5\maven-scm-providers\maven-scm-providers-cvs\maven-scm-provider-cvstest</t>
+  </si>
+  <si>
     <t>org.apache.maven.wagon:wagon-http-shared</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\maven-wagon-wagon-3.0.0\wagon-providers\wagon-http-shared</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\maven-wagon-wagon-3.0.0\wagon-providers\wagon-http-shared</t>
+  </si>
+  <si>
     <t>org.apache.derbyBuild:JiraSOAP</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\derby-10.11.1.1\tools\release\jirasoap</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\derby-10.14.1.0\tools\release\jirasoap</t>
+  </si>
+  <si>
     <t>org.apache.oodt:cas-cli</t>
   </si>
   <si>
     <t>org.springframework:spring-beans</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\oodt-1.2.1\cli</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\oodt-1.2.2\cli</t>
+  </si>
+  <si>
     <t>org.springframework:spring-context</t>
   </si>
   <si>
     <t>org.apache.sirona:sirona-tomee-agent</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\sirona-sirona-0.2-incubating\plugins\tomee\agent</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\sirona-sirona-0.5-incubating\plugins\tomee\agent</t>
+  </si>
+  <si>
     <t>org.hsqldb:hsqldb</t>
   </si>
   <si>
@@ -302,27 +494,57 @@
     <t>org.apache.santuario:xmlsec</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\jbossws-cxf-jbossws-cxf-5.1.8.Final\modules\jaspi</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\jbossws-cxf-jbossws-cxf-5.1.10.Final\modules\jaspi</t>
+  </si>
+  <si>
     <t>org.apache.myfaces.extensions.scripting:extscript-cdi</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\myfaces-scripting-extscript-root-1.0.5\extscript-core-root\extscript-cdi</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\myfaces-scripting-extscript-root-1.0.6\extscript-core-root\extscript-cdi</t>
+  </si>
+  <si>
     <t>org.cogroo:cogroo-ruta</t>
   </si>
   <si>
     <t>org.carrot2:morfologik-fsa</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\cogroo4-cogroo-4.2.0\cogroo-ruta</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\cogroo4-cogroo-4.3.1\cogroo-ruta</t>
+  </si>
+  <si>
     <t>org.apache.uima:uimaj-core</t>
   </si>
   <si>
     <t>org.apache.activemq.examples.openwire:message-listener</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\examples\protocols\openwire\message-listener</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\examples\protocols\openwire\message-listener</t>
+  </si>
+  <si>
     <t>org.apache.geronimo.specs:geronimo-jms_1.1_spec</t>
   </si>
   <si>
     <t>org.apache.nifi:nifi-file-authorizer</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-framework-bundle\nifi-framework\nifi-file-authorizer</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-framework-bundle\nifi-framework\nifi-file-authorizer</t>
+  </si>
+  <si>
     <t>org.slf4j:slf4j-log4j12</t>
   </si>
   <si>
@@ -335,42 +557,108 @@
     <t>org.apache.struts.xwork:xwork-core</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\struts2-STRUTS_2_2_1_1\xwork-core</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\struts2-STRUTS_2_2_3\xwork-core</t>
+  </si>
+  <si>
     <t>org.apache.activemq:artemis-commons</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\artemis-commons</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\artemis-commons</t>
+  </si>
+  <si>
     <t>org.apache.abdera:abdera-extensions-features</t>
   </si>
   <si>
     <t>xerces:xercesImpl</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\abdera-abdera-1.1.2-RC2\extensions\features</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\abdera-abdera-1.1.3-RC2\extensions\features</t>
+  </si>
+  <si>
     <t>org.codehaus.woodstox:wstx-asl</t>
   </si>
   <si>
     <t>org.apache.maven.mercury:mercury-repo-remote-m2</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\maven-mercury-mercury-1.0.0-alpha-2\mercury-repo\mercury-repo-remote-m2</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\maven-mercury-mercury-1.0-alpha-6\mercury-repo\mercury-repo-remote-m2</t>
+  </si>
+  <si>
     <t>org.skywalking:apm-collector-core</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\apacheproj-3.2.3\apm-collector\apm-collector-core</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\apacheproj-3.2.6\apm-collector\apm-collector-core</t>
+  </si>
+  <si>
     <t>org.apache.myfaces.extensions.cdi.modules:myfaces-extcdi-jsf12-module-impl</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\myfaces-extcdi-extcdi-1.0.5\jee-modules\jsf-module\impl</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\myfaces-extcdi-extcdi-1.0.6\jee-modules\jsf-module\impl</t>
+  </si>
+  <si>
     <t>org.apache.activemq:artemis-junit</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\artemis-junit</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\artemis-junit</t>
+  </si>
+  <si>
     <t>org.apache.maven.scm:maven-scm-provider-hg</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\maven-scm-maven-scm-1.9.4\maven-scm-providers\maven-scm-provider-hg</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\maven-scm-maven-scm-1.9.5\maven-scm-providers\maven-scm-provider-hg</t>
+  </si>
+  <si>
     <t>org.apache.sirona:sirona-cube</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\sirona-sirona-0.2-incubating\agent\store\cube</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\sirona-sirona-0.5-incubating\agent\store\cube</t>
+  </si>
+  <si>
     <t>com.orientechnologies:orientdb-lucene</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\orientdb-3.0.0RC1\lucene</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\orientdb-3.0.0m2\lucene</t>
+  </si>
+  <si>
     <t>org.apache.logging.log4j:log4j-taglib</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\logging-log4j2-log4j-2.9.0\log4j-taglib</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\logging-log4j2-log4j-2.10.0\log4j-taglib</t>
+  </si>
+  <si>
     <t>org.apache.logging.log4j:log4j-core</t>
   </si>
   <si>
@@ -380,12 +668,30 @@
     <t>org.apache.xbean:xbean-asm5-shaded</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\meecrowave-meecrowave-0.3.1\meecrowave-jpa</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\meecrowave-meecrowave-1.2.0\trunk\meecrowave-jpa</t>
+  </si>
+  <si>
     <t>org.apache.james:james-server-guice-lmtp</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\james-project-james-project-3.0.0-RC1\server\container\guice\protocols\lmtp</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\james-project-james-project-3.0.1\server\container\guice\protocols\lmtp</t>
+  </si>
+  <si>
     <t>org.apache.nifi.minifi:minifi-toolkit-configuration</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\nifi-minifi-rel-minifi-0.1.0\minifi-toolkit\minifi-toolkit-configuration</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\nifi-minifi-rel-minifi-0.4.0\minifi-toolkit\minifi-toolkit-configuration</t>
+  </si>
+  <si>
     <t>ch.qos.logback:logback-classic</t>
   </si>
   <si>
@@ -404,64 +710,178 @@
     <t>org.apache.wink:wink-client-asynchttpclient</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\wink-wink-1.3.0-RC1\wink-client-asynchttpclient</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\wink-wink-1.4.0\wink-client-asynchttpclient</t>
+  </si>
+  <si>
     <t>org.apache.logging.log4j:log4j-jul</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\logging-log4j2-log4j-2.9.0\log4j-jul</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\logging-log4j2-log4j-2.10.0\log4j-jul</t>
+  </si>
+  <si>
     <t>org.apache.activemq.examples.openwire:queue-openwire</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\examples\protocols\openwire\queue</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\examples\protocols\openwire\queue</t>
+  </si>
+  <si>
     <t>org.apache.nifi:nifi-volatile-provenance-repository</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-provenance-repository-bundle\nifi-volatile-provenance-repository</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-provenance-repository-bundle\nifi-volatile-provenance-repository</t>
+  </si>
+  <si>
     <t>org.apache.activemq:artemis-core-client</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\artemis-core-client</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\artemis-core-client</t>
+  </si>
+  <si>
     <t>com.facebook.presto.hadoop:hadoop-apache1</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\presto-hadoop-apache1-0.2</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\presto-hadoop-apache1-1.2.1-1</t>
+  </si>
+  <si>
     <t>org.apache.nifi:nifi-ssl-context-service</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-standard-services\nifi-ssl-context-bundle\nifi-ssl-context-service</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-standard-services\nifi-ssl-context-bundle\nifi-ssl-context-service</t>
+  </si>
+  <si>
     <t>org.sculptorgenerator:sculptor-framework-test</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\sculptor-3.0.4\sculptor-framework\sculptor-framework-test</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\sculptor-3.1.0\sculptor-framework\sculptor-framework-test</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_old\orientdb-3.0.0RC1\core</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\orientdb-3.0.0m2\core</t>
+  </si>
+  <si>
     <t>org.apache.wink:wink-json-provider</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\wink-wink-1.3.0-RC1\wink-providers\wink-json-provider</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\wink-wink-1.4.0\wink-providers\wink-json-provider</t>
+  </si>
+  <si>
     <t>org.apache.james:apache-james-mpt-antlib</t>
   </si>
   <si>
     <t>org.apache.james:apache-james-mpt-core</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\james-project-james-project-3.0.0-RC1\mpt\antlib</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\james-project-james-project-3.0.1\mpt\antlib</t>
+  </si>
+  <si>
     <t>org.apache.james.protocols:protocols-imap</t>
   </si>
   <si>
     <t>org.apache.activemq:artemis-journal</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\activemq-artemis-2.1.0\artemis-journal</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\activemq-artemis-2.4.0\artemis-journal</t>
+  </si>
+  <si>
     <t>com.orientechnologies:orientdb-client</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\orientdb-3.0.0RC1\client</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\orientdb-3.0.0m2\client</t>
+  </si>
+  <si>
     <t>com.mesosphere.mesos.rx.java.example:mesos-rxjava-example-framework</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\mesos-rxjava-0.1.0\mesos-rxjava-example\mesos-rxjava-example-framework</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\mesos-rxjava-0.1.1\mesos-rxjava-example\mesos-rxjava-example-framework</t>
+  </si>
+  <si>
     <t>org.apache.tuscany.sca:tuscany-binding-rest-runtime</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\tuscany-sca-2.x-2.0\modules\binding-rest-runtime</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\tuscany-sca-2.x-2.0.1\modules\binding-rest-runtime</t>
+  </si>
+  <si>
     <t>javax.servlet:servlet-api</t>
   </si>
   <si>
     <t>org.apache.james:apache-james-mpt-app</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\james-project-james-project-3.0.0-RC1\mpt\app</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\james-project-james-project-3.0.1\mpt\app</t>
+  </si>
+  <si>
     <t>org.apache.maven.mercury:mercury-crypto-basic</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\maven-mercury-mercury-1.0.0-alpha-2\mercury-crypto\mercury-crypto-basic</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\maven-mercury-mercury-1.0-alpha-6\mercury-crypto\mercury-crypto-basic</t>
+  </si>
+  <si>
     <t>org.apache.nifi:nifi-azure-processors</t>
   </si>
   <si>
+    <t>rawData\gitHub_old\nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-azure-bundle\nifi-azure-processors</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-azure-bundle\nifi-azure-processors</t>
+  </si>
+  <si>
     <t>org.apache.marmotta:ldcache-backend-infinispan</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_old\marmotta-3.2.1\libraries\ldcache\ldcache-backend-infinispan</t>
+  </si>
+  <si>
+    <t>rawData\gitHub_new\marmotta-3.3.0\libraries\ldcache\ldcache-backend-infinispan</t>
   </si>
   <si>
     <t>org.jboss.logging:jboss-logging</t>
@@ -478,417 +898,6 @@
   <si>
     <t>Fixed release</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commons-chain-CHAIN_1_2_RC2</t>
-  </si>
-  <si>
-    <t>bookkeeper-release-4.5.0\bookkeeper-stats</t>
-  </si>
-  <si>
-    <t>servicemix3-servicemix-3.3.2\core\servicemix-audit</t>
-  </si>
-  <si>
-    <t>myfaces-extcdi-extcdi-1.0.5\core\impl</t>
-  </si>
-  <si>
-    <t>marmotta-3.2.1\libraries\ldclient\ldclient-provider-rdf</t>
-  </si>
-  <si>
-    <t>metamodel-MetaModel-5.0-RC4\elasticsearch\rest</t>
-  </si>
-  <si>
-    <t>james-project-james-project-3.0.0-RC1\server\container\guice\onami</t>
-  </si>
-  <si>
-    <t>mesos-rxjava-0.1.0\mesos-rxjava-recordio</t>
-  </si>
-  <si>
-    <t>clue-release-0.0.5</t>
-  </si>
-  <si>
-    <t>tomcat-maven-plugin-tomcat-maven-plugin-2.0-beta-1\tomcat7-war-runner</t>
-  </si>
-  <si>
-    <t>axis2-java-1.7.6\modules\json</t>
-  </si>
-  <si>
-    <t>maven-wagon-wagon-3.0.0\wagon-providers\wagon-ssh-common</t>
-  </si>
-  <si>
-    <t>wink-wink-1.3.0-RC1\wink-examples\client\ReadRSS-client</t>
-  </si>
-  <si>
-    <t>tuscany-sca-2.x-2.0\modules\binding-http-runtime</t>
-  </si>
-  <si>
-    <t>rampart-1.6.4\modules\rampart-policy</t>
-  </si>
-  <si>
-    <t>mina-2.0.16\mina-integration-xbean</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\artemis-web</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\artemis-jms-server</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-spring-bundle\nifi-spring-processors</t>
-  </si>
-  <si>
-    <t>wink-wink-1.3.0-RC1\wink-client-apache-httpclient</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\artemis-service-extensions</t>
-  </si>
-  <si>
-    <t>orientdb-3.0.0RC1\etl</t>
-  </si>
-  <si>
-    <t>usergrid-usergrid-006\stack\corepersistence\model</t>
-  </si>
-  <si>
-    <t>olingo-odata2-2.0.8\odata2-jpa-processor\jpa-ref</t>
-  </si>
-  <si>
-    <t>hono-0.5-M7\core</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\artemis-cdi-client</t>
-  </si>
-  <si>
-    <t>incubator-batchee-batchee-0.2-incubating\extensions\extras</t>
-  </si>
-  <si>
-    <t>maven-scm-maven-scm-1.9.4\maven-scm-providers\maven-scm-providers-cvs\maven-scm-provider-cvstest</t>
-  </si>
-  <si>
-    <t>maven-wagon-wagon-3.0.0\wagon-providers\wagon-http-shared</t>
-  </si>
-  <si>
-    <t>derby-10.11.1.1\tools\release\jirasoap</t>
-  </si>
-  <si>
-    <t>oodt-1.2.1\cli</t>
-  </si>
-  <si>
-    <t>sirona-sirona-0.2-incubating\plugins\tomee\agent</t>
-  </si>
-  <si>
-    <t>jbossws-cxf-jbossws-cxf-5.1.8.Final\modules\jaspi</t>
-  </si>
-  <si>
-    <t>myfaces-scripting-extscript-root-1.0.5\extscript-core-root\extscript-cdi</t>
-  </si>
-  <si>
-    <t>cogroo4-cogroo-4.2.0\cogroo-ruta</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\examples\protocols\openwire\message-listener</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-framework-bundle\nifi-framework\nifi-file-authorizer</t>
-  </si>
-  <si>
-    <t>struts2-STRUTS_2_2_1_1\xwork-core</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\artemis-commons</t>
-  </si>
-  <si>
-    <t>abdera-abdera-1.1.2-RC2\extensions\features</t>
-  </si>
-  <si>
-    <t>maven-mercury-mercury-1.0.0-alpha-2\mercury-repo\mercury-repo-remote-m2</t>
-  </si>
-  <si>
-    <t>apacheproj-3.2.3\apm-collector\apm-collector-core</t>
-  </si>
-  <si>
-    <t>myfaces-extcdi-extcdi-1.0.5\jee-modules\jsf-module\impl</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\artemis-junit</t>
-  </si>
-  <si>
-    <t>maven-scm-maven-scm-1.9.4\maven-scm-providers\maven-scm-provider-hg</t>
-  </si>
-  <si>
-    <t>sirona-sirona-0.2-incubating\agent\store\cube</t>
-  </si>
-  <si>
-    <t>orientdb-3.0.0RC1\lucene</t>
-  </si>
-  <si>
-    <t>logging-log4j2-log4j-2.9.0\log4j-taglib</t>
-  </si>
-  <si>
-    <t>meecrowave-meecrowave-0.3.1\meecrowave-jpa</t>
-  </si>
-  <si>
-    <t>james-project-james-project-3.0.0-RC1\server\container\guice\protocols\lmtp</t>
-  </si>
-  <si>
-    <t>nifi-minifi-rel-minifi-0.1.0\minifi-toolkit\minifi-toolkit-configuration</t>
-  </si>
-  <si>
-    <t>wink-wink-1.3.0-RC1\wink-client-asynchttpclient</t>
-  </si>
-  <si>
-    <t>logging-log4j2-log4j-2.9.0\log4j-jul</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\examples\protocols\openwire\queue</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-provenance-repository-bundle\nifi-volatile-provenance-repository</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\artemis-core-client</t>
-  </si>
-  <si>
-    <t>presto-hadoop-apache1-0.2</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-standard-services\nifi-ssl-context-bundle\nifi-ssl-context-service</t>
-  </si>
-  <si>
-    <t>sculptor-3.0.4\sculptor-framework\sculptor-framework-test</t>
-  </si>
-  <si>
-    <t>orientdb-3.0.0RC1\core</t>
-  </si>
-  <si>
-    <t>wink-wink-1.3.0-RC1\wink-providers\wink-json-provider</t>
-  </si>
-  <si>
-    <t>james-project-james-project-3.0.0-RC1\mpt\antlib</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.1.0\artemis-journal</t>
-  </si>
-  <si>
-    <t>orientdb-3.0.0RC1\client</t>
-  </si>
-  <si>
-    <t>mesos-rxjava-0.1.0\mesos-rxjava-example\mesos-rxjava-example-framework</t>
-  </si>
-  <si>
-    <t>tuscany-sca-2.x-2.0\modules\binding-rest-runtime</t>
-  </si>
-  <si>
-    <t>james-project-james-project-3.0.0-RC1\mpt\app</t>
-  </si>
-  <si>
-    <t>maven-mercury-mercury-1.0.0-alpha-2\mercury-crypto\mercury-crypto-basic</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.2.0\nifi-nar-bundles\nifi-azure-bundle\nifi-azure-processors</t>
-  </si>
-  <si>
-    <t>marmotta-3.2.1\libraries\ldcache\ldcache-backend-infinispan</t>
-  </si>
-  <si>
-    <t>commons-chain-CHAIN_1_2</t>
-  </si>
-  <si>
-    <t>bookkeeper-release-4.6.1\bookkeeper-stats</t>
-  </si>
-  <si>
-    <t>servicemix3-servicemix-3.4.1\core\servicemix-audit</t>
-  </si>
-  <si>
-    <t>myfaces-extcdi-extcdi-1.0.6\core\impl</t>
-  </si>
-  <si>
-    <t>marmotta-3.3.0\libraries\ldclient\ldclient-provider-rdf</t>
-  </si>
-  <si>
-    <t>metamodel-MetaModel-5.1.0-RC1\elasticsearch\rest</t>
-  </si>
-  <si>
-    <t>james-project-james-project-3.0.1\server\container\guice\onami</t>
-  </si>
-  <si>
-    <t>mesos-rxjava-0.1.1\mesos-rxjava-recordio</t>
-  </si>
-  <si>
-    <t>clue-release-0.0.2</t>
-  </si>
-  <si>
-    <t>tomcat-maven-plugin-tomcat-maven-plugin-2.2\tomcat7-war-runner</t>
-  </si>
-  <si>
-    <t>axis2-java-1.7.7\modules\json</t>
-  </si>
-  <si>
-    <t>wink-wink-1.4.0\wink-examples\client\ReadRSS-client</t>
-  </si>
-  <si>
-    <t>tuscany-sca-2.x-2.0.1\modules\binding-http-runtime</t>
-  </si>
-  <si>
-    <t>rampart-1.7.1\modules\rampart-policy</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\artemis-web</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\artemis-jms-server</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-spring-bundle\nifi-spring-processors</t>
-  </si>
-  <si>
-    <t>wink-wink-1.4.0\wink-client-apache-httpclient</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\artemis-service-extensions</t>
-  </si>
-  <si>
-    <t>orientdb-3.0.0m2\etl</t>
-  </si>
-  <si>
-    <t>usergrid-usergrid-2.1.0\stack\corepersistence\model</t>
-  </si>
-  <si>
-    <t>olingo-odata2-2.0.10-RC01\odata2-jpa-processor\jpa-ref</t>
-  </si>
-  <si>
-    <t>hono-0.5\core</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\artemis-cdi-client</t>
-  </si>
-  <si>
-    <t>incubator-batchee-batchee-0.5-incubating\extensions\extras</t>
-  </si>
-  <si>
-    <t>maven-scm-maven-scm-1.9.5\maven-scm-providers\maven-scm-providers-cvs\maven-scm-provider-cvstest</t>
-  </si>
-  <si>
-    <t>derby-10.14.1.0\tools\release\jirasoap</t>
-  </si>
-  <si>
-    <t>oodt-1.2.2\cli</t>
-  </si>
-  <si>
-    <t>sirona-sirona-0.5-incubating\plugins\tomee\agent</t>
-  </si>
-  <si>
-    <t>jbossws-cxf-jbossws-cxf-5.1.10.Final\modules\jaspi</t>
-  </si>
-  <si>
-    <t>myfaces-scripting-extscript-root-1.0.6\extscript-core-root\extscript-cdi</t>
-  </si>
-  <si>
-    <t>cogroo4-cogroo-4.3.1\cogroo-ruta</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\examples\protocols\openwire\message-listener</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-framework-bundle\nifi-framework\nifi-file-authorizer</t>
-  </si>
-  <si>
-    <t>struts2-STRUTS_2_2_3\xwork-core</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\artemis-commons</t>
-  </si>
-  <si>
-    <t>abdera-abdera-1.1.3-RC2\extensions\features</t>
-  </si>
-  <si>
-    <t>maven-mercury-mercury-1.0-alpha-6\mercury-repo\mercury-repo-remote-m2</t>
-  </si>
-  <si>
-    <t>apacheproj-3.2.6\apm-collector\apm-collector-core</t>
-  </si>
-  <si>
-    <t>myfaces-extcdi-extcdi-1.0.6\jee-modules\jsf-module\impl</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\artemis-junit</t>
-  </si>
-  <si>
-    <t>maven-scm-maven-scm-1.9.5\maven-scm-providers\maven-scm-provider-hg</t>
-  </si>
-  <si>
-    <t>sirona-sirona-0.5-incubating\agent\store\cube</t>
-  </si>
-  <si>
-    <t>orientdb-3.0.0m2\lucene</t>
-  </si>
-  <si>
-    <t>logging-log4j2-log4j-2.10.0\log4j-taglib</t>
-  </si>
-  <si>
-    <t>meecrowave-meecrowave-1.2.0\trunk\meecrowave-jpa</t>
-  </si>
-  <si>
-    <t>james-project-james-project-3.0.1\server\container\guice\protocols\lmtp</t>
-  </si>
-  <si>
-    <t>nifi-minifi-rel-minifi-0.4.0\minifi-toolkit\minifi-toolkit-configuration</t>
-  </si>
-  <si>
-    <t>wink-wink-1.4.0\wink-client-asynchttpclient</t>
-  </si>
-  <si>
-    <t>logging-log4j2-log4j-2.10.0\log4j-jul</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\examples\protocols\openwire\queue</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-provenance-repository-bundle\nifi-volatile-provenance-repository</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\artemis-core-client</t>
-  </si>
-  <si>
-    <t>presto-hadoop-apache1-1.2.1-1</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-standard-services\nifi-ssl-context-bundle\nifi-ssl-context-service</t>
-  </si>
-  <si>
-    <t>sculptor-3.1.0\sculptor-framework\sculptor-framework-test</t>
-  </si>
-  <si>
-    <t>orientdb-3.0.0m2\core</t>
-  </si>
-  <si>
-    <t>wink-wink-1.4.0\wink-providers\wink-json-provider</t>
-  </si>
-  <si>
-    <t>james-project-james-project-3.0.1\mpt\antlib</t>
-  </si>
-  <si>
-    <t>activemq-artemis-2.4.0\artemis-journal</t>
-  </si>
-  <si>
-    <t>orientdb-3.0.0m2\client</t>
-  </si>
-  <si>
-    <t>mesos-rxjava-0.1.1\mesos-rxjava-example\mesos-rxjava-example-framework</t>
-  </si>
-  <si>
-    <t>tuscany-sca-2.x-2.0.1\modules\binding-rest-runtime</t>
-  </si>
-  <si>
-    <t>james-project-james-project-3.0.1\mpt\app</t>
-  </si>
-  <si>
-    <t>maven-mercury-mercury-1.0-alpha-6\mercury-crypto\mercury-crypto-basic</t>
-  </si>
-  <si>
-    <t>nifi-rel-nifi-1.5.0\nifi-nar-bundles\nifi-azure-bundle\nifi-azure-processors</t>
-  </si>
-  <si>
-    <t>marmotta-3.3.0\libraries\ldcache\ldcache-backend-infinispan</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1289,7 @@
   <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1326,10 +1335,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1337,24 +1346,24 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1366,78 +1375,78 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1446,95 +1455,95 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>152</v>
-      </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -1546,18 +1555,18 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1566,18 +1575,18 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1586,38 +1595,38 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1626,38 +1635,38 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1666,18 +1675,18 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1686,18 +1695,18 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1706,58 +1715,58 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1766,18 +1775,18 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1786,18 +1795,18 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1806,38 +1815,38 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1846,38 +1855,38 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>154</v>
-      </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1886,58 +1895,58 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
@@ -1946,18 +1955,18 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1966,18 +1975,18 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
@@ -1986,18 +1995,18 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2006,18 +2015,18 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -2026,18 +2035,18 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -2046,18 +2055,18 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -2066,18 +2075,18 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -2086,35 +2095,35 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
@@ -2123,61 +2132,61 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -2186,15 +2195,15 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
@@ -2206,18 +2215,18 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -2226,18 +2235,18 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="F47" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -2246,18 +2255,18 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -2266,18 +2275,18 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -2286,18 +2295,18 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -2306,18 +2315,18 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -2326,35 +2335,35 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>6</v>
@@ -2366,18 +2375,18 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -2386,38 +2395,38 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -2426,18 +2435,18 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F57" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -2446,15 +2455,15 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>6</v>
@@ -2463,21 +2472,21 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F59" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -2486,18 +2495,18 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -2506,35 +2515,35 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="F62" t="s">
-        <v>235</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>6</v>
@@ -2543,21 +2552,21 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>235</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -2566,18 +2575,18 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="F64" t="s">
-        <v>235</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -2586,18 +2595,18 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="F65" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -2606,18 +2615,18 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="F66" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -2626,18 +2635,18 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -2646,18 +2655,18 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="F68" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -2666,35 +2675,35 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C70" s="1">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="F70" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>6</v>
@@ -2703,21 +2712,21 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="F71" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -2726,18 +2735,18 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="F72" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -2746,18 +2755,18 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="F73" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -2766,18 +2775,18 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="F74" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -2786,18 +2795,18 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="F75" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -2806,18 +2815,18 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="F76" t="s">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -2826,18 +2835,18 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="F77" t="s">
-        <v>241</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -2846,18 +2855,18 @@
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="F78" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -2866,35 +2875,35 @@
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C80" s="1">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="F80" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>6</v>
@@ -2903,21 +2912,21 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="F81" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -2926,18 +2935,18 @@
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
@@ -2946,18 +2955,18 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="F83" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -2966,18 +2975,18 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="F84" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -2986,18 +2995,18 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="F85" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
@@ -3006,18 +3015,18 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="F86" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -3026,15 +3035,15 @@
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="F87" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>6</v>
@@ -3046,18 +3055,18 @@
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="F88" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -3066,18 +3075,18 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -3086,18 +3095,18 @@
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F90" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
@@ -3106,15 +3115,15 @@
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F91" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>6</v>
@@ -3126,18 +3135,18 @@
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F92" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -3146,18 +3155,18 @@
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F93" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -3166,18 +3175,18 @@
         <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F94" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -3186,18 +3195,18 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F95" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -3206,18 +3215,18 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F96" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -3226,18 +3235,18 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F97" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -3246,18 +3255,18 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F98" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -3266,18 +3275,18 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="F99" t="s">
-        <v>249</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -3286,18 +3295,18 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F100" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -3306,18 +3315,18 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F101" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -3326,18 +3335,18 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F102" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -3346,18 +3355,18 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F103" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -3366,18 +3375,18 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F104" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -3386,38 +3395,38 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F105" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C106" s="1">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F106" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -3426,18 +3435,18 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F107" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -3446,18 +3455,18 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F108" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -3466,18 +3475,18 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F109" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -3486,18 +3495,18 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F110" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C111" s="1">
         <v>2</v>
@@ -3506,18 +3515,18 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F111" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -3526,18 +3535,18 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F112" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -3546,18 +3555,18 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F113" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -3566,38 +3575,38 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F114" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="C115" s="1">
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F115" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -3606,18 +3615,18 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F116" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -3626,35 +3635,35 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F117" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C118" s="1">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F118" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>6</v>
@@ -3663,21 +3672,21 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F119" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -3686,18 +3695,18 @@
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F120" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -3706,15 +3715,15 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F121" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>6</v>
@@ -3726,38 +3735,38 @@
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F122" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C123" s="1">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F123" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -3766,18 +3775,18 @@
         <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F124" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -3786,18 +3795,18 @@
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F125" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -3806,18 +3815,18 @@
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F126" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -3826,18 +3835,18 @@
         <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F127" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -3846,18 +3855,18 @@
         <v>7</v>
       </c>
       <c r="E128" t="s">
+        <v>190</v>
+      </c>
+      <c r="F128" t="s">
         <v>191</v>
-      </c>
-      <c r="F128" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -3866,18 +3875,18 @@
         <v>7</v>
       </c>
       <c r="E129" t="s">
+        <v>190</v>
+      </c>
+      <c r="F129" t="s">
         <v>191</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -3886,35 +3895,35 @@
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F130" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C131" s="1">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>6</v>
@@ -3923,21 +3932,21 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -3946,18 +3955,18 @@
         <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F133" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -3966,18 +3975,18 @@
         <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F134" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -3986,18 +3995,18 @@
         <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -4006,18 +4015,18 @@
         <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
@@ -4026,18 +4035,18 @@
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F137" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
@@ -4046,18 +4055,18 @@
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F138" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -4066,15 +4075,15 @@
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F139" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>6</v>
@@ -4086,18 +4095,18 @@
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
@@ -4106,38 +4115,38 @@
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="C142" s="1">
         <v>4</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F142" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -4146,18 +4155,18 @@
         <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F143" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -4166,18 +4175,18 @@
         <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C145" s="1">
         <v>2</v>
@@ -4186,38 +4195,38 @@
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F145" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C146" s="1">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E146" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F146" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
@@ -4226,58 +4235,58 @@
         <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F147" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F148" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="C149" s="1">
         <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E149" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F149" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -4286,18 +4295,18 @@
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F150" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
@@ -4306,18 +4315,18 @@
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F151" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -4326,18 +4335,18 @@
         <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F152" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -4346,38 +4355,38 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F153" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="C154" s="1">
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E154" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F154" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
@@ -4386,18 +4395,18 @@
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F155" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
@@ -4406,18 +4415,18 @@
         <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F156" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C157" s="1">
         <v>2</v>
@@ -4426,38 +4435,38 @@
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F157" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="C158" s="1">
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F158" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
@@ -4466,18 +4475,18 @@
         <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F159" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
@@ -4486,18 +4495,18 @@
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F160" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
@@ -4506,18 +4515,18 @@
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F161" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
@@ -4526,18 +4535,18 @@
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F162" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
@@ -4546,18 +4555,18 @@
         <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F163" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
@@ -4566,18 +4575,18 @@
         <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="F164" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
@@ -4586,18 +4595,18 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="F165" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
@@ -4606,35 +4615,35 @@
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F166" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F167" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>6</v>
@@ -4643,21 +4652,21 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E168" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F168" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
@@ -4666,18 +4675,18 @@
         <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F169" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
@@ -4686,18 +4695,18 @@
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="F170" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C171" s="1">
         <v>1</v>
@@ -4706,18 +4715,18 @@
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="F171" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
@@ -4726,18 +4735,18 @@
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="F172" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
@@ -4746,18 +4755,18 @@
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="F173" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
@@ -4766,18 +4775,18 @@
         <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="F174" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
@@ -4786,18 +4795,18 @@
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="F175" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
@@ -4806,18 +4815,18 @@
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F176" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
@@ -4826,18 +4835,18 @@
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F177" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C178" s="1">
         <v>1</v>
@@ -4846,18 +4855,18 @@
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="F178" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="C179" s="1">
         <v>1</v>
@@ -4866,18 +4875,18 @@
         <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F179" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C180" s="1">
         <v>1</v>
@@ -4886,18 +4895,18 @@
         <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F180" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C181" s="1">
         <v>1</v>
@@ -4906,18 +4915,18 @@
         <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F181" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
@@ -4926,15 +4935,15 @@
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F182" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>6</v>
@@ -4946,35 +4955,35 @@
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F183" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C184" s="1">
         <v>4</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E184" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="F184" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>6</v>
@@ -4983,21 +4992,21 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="F185" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C186" s="1">
         <v>1</v>
@@ -5006,18 +5015,18 @@
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="F186" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C187" s="1">
         <v>1</v>
@@ -5026,18 +5035,18 @@
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="F187" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C188" s="1">
         <v>1</v>
@@ -5046,18 +5055,18 @@
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="F188" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
@@ -5066,18 +5075,18 @@
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="F189" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
@@ -5086,18 +5095,18 @@
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="F190" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
@@ -5106,18 +5115,18 @@
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="F191" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
@@ -5126,18 +5135,18 @@
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="F192" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
@@ -5146,18 +5155,18 @@
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="F193" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
@@ -5166,38 +5175,38 @@
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="F194" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C195" s="1">
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E195" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F195" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
@@ -5206,18 +5215,18 @@
         <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F196" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="C197" s="1">
         <v>1</v>
@@ -5226,18 +5235,18 @@
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="F197" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
@@ -5246,18 +5255,18 @@
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="F198" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
@@ -5266,18 +5275,18 @@
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="F199" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
@@ -5286,15 +5295,15 @@
         <v>7</v>
       </c>
       <c r="E200" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="F200" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>6</v>
@@ -5306,18 +5315,18 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="F201" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
@@ -5326,18 +5335,18 @@
         <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="F202" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C203" s="1">
         <v>1</v>
@@ -5346,38 +5355,38 @@
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="F203" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C204" s="1">
         <v>4</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E204" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="F204" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C205" s="1">
         <v>1</v>
@@ -5386,18 +5395,18 @@
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="F205" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C206" s="1">
         <v>1</v>
@@ -5406,18 +5415,18 @@
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="F206" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C207" s="1">
         <v>1</v>
@@ -5426,18 +5435,18 @@
         <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="F207" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C208" s="1">
         <v>4</v>
@@ -5446,18 +5455,18 @@
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F208" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="C209" s="1">
         <v>1</v>
@@ -5466,18 +5475,18 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F209" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="C210" s="1">
         <v>1</v>
@@ -5486,18 +5495,18 @@
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F210" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C211" s="1">
         <v>1</v>
@@ -5506,38 +5515,38 @@
         <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F211" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C212" s="1">
         <v>4</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E212" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F212" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C213" s="1">
         <v>1</v>
@@ -5546,18 +5555,18 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F213" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C214" s="1">
         <v>1</v>
@@ -5566,58 +5575,58 @@
         <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F214" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C215" s="1">
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E215" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F215" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C216" s="1">
         <v>1</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E216" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F216" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C217" s="1">
         <v>2</v>
@@ -5626,18 +5635,18 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F217" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="C218" s="1">
         <v>1</v>
@@ -5646,18 +5655,18 @@
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F218" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="C219" s="1">
         <v>1</v>
@@ -5666,18 +5675,18 @@
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F219" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C220" s="1">
         <v>1</v>
@@ -5686,10 +5695,10 @@
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="F220" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
